--- a/2022/com-20220911.xlsx
+++ b/2022/com-20220911.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrye/personal/mac/results/2022/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C298BF-800E-9A43-9C52-7C6C2074C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20115" windowHeight="9525"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="21660" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>class_index</t>
   </si>
@@ -75,9 +81,6 @@
     <t xml:space="preserve"> 1:15.756</t>
   </si>
   <si>
-    <t xml:space="preserve"> DENNIS OMEARA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1:15.854</t>
   </si>
   <si>
@@ -165,9 +168,6 @@
     <t xml:space="preserve"> ASP</t>
   </si>
   <si>
-    <t xml:space="preserve"> KIM JOHM CRUMB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1:10.122</t>
   </si>
   <si>
@@ -264,9 +264,6 @@
     <t xml:space="preserve"> 0:56.288 </t>
   </si>
   <si>
-    <t xml:space="preserve"> jJOHN MORAVEC</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0:58.293 </t>
   </si>
   <si>
@@ -277,13 +274,25 @@
   </si>
   <si>
     <t xml:space="preserve"> 0:52.434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:56.329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOHN MORAVEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KIM JOHN CRUMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DENNIS O'MEARA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,8 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -815,6 +823,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -861,7 +877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,9 +909,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,6 +961,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1102,493 +1154,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+      <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
+      <c r="D38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="D40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="B42" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+      <c r="C42" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="E42" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
+      <c r="E43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
+      <c r="C44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="E44" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
+      <c r="E45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
+      <c r="E46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
+      <c r="E49" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1597,24 +1561,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2022/com-20220911.xlsx
+++ b/2022/com-20220911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrye/personal/mac/results/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C298BF-800E-9A43-9C52-7C6C2074C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731305E3-B7E3-9747-A8FD-67BD580EB4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="21660" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>class_index</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve"> DENNIS O'MEARA</t>
+  </si>
+  <si>
+    <t>SMF</t>
+  </si>
+  <si>
+    <t>PATRICK MALZAHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:04.626</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1405,6 +1414,17 @@
       </c>
       <c r="D32" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">

--- a/2022/com-20220911.xlsx
+++ b/2022/com-20220911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrye/personal/mac/results/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731305E3-B7E3-9747-A8FD-67BD580EB4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4327685-6DB1-6E40-9384-1E4F1C12CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="21660" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,18 +207,12 @@
     <t xml:space="preserve"> 1:06.469</t>
   </si>
   <si>
-    <t xml:space="preserve"> XS-A</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DOUGLAS LINDMAN</t>
   </si>
   <si>
     <t xml:space="preserve"> 1:15.923 </t>
   </si>
   <si>
-    <t xml:space="preserve"> XS-B</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BLAKE DOBLINGER</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 1:04.626</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>XB</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1388,7 +1388,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
         <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,128 +1451,128 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
         <v>64</v>
       </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
